--- a/Financial Analysis - 2023-05-19.xlsx
+++ b/Financial Analysis - 2023-05-19.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="C2" t="n">
         <v>123.25</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="C3" t="n">
         <v>116.25</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.26</v>
+        <v>7.36</v>
       </c>
       <c r="C4" t="n">
         <v>175.16</v>
